--- a/xxx.xlsx
+++ b/xxx.xlsx
@@ -329,12 +329,12 @@
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>年龄</t>
+          <t>商户ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>性别</t>
+          <t>OpenID</t>
         </is>
       </c>
     </row>
